--- a/VerimadenciligiCalismaKonulari (1).xlsx
+++ b/VerimadenciligiCalismaKonulari (1).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\veriMadenciligi\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A053E5-F530-4885-ABFE-A47C9F348AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -14,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="105">
   <si>
     <t>Konu</t>
   </si>
@@ -354,11 +351,23 @@
   <si>
     <t>Ayxan Nasirli</t>
   </si>
+  <si>
+    <t>Mert KIYDAN</t>
+  </si>
+  <si>
+    <t>Hilal ÇINAR</t>
+  </si>
+  <si>
+    <t>Egemen ŞAHİN</t>
+  </si>
+  <si>
+    <t>Melik Samed ALMACI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -532,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -585,14 +594,7 @@
       <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -901,18 +903,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1290,15 +1292,14 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
+      <c r="E31"/>
     </row>
     <row r="32" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
@@ -1341,12 +1342,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
+    <row r="36" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="17">
         <v>35</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="18" t="s">
         <v>34</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="20">
+        <v>44932</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1407,12 +1417,21 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
+    <row r="42" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="17">
         <v>41</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="18" t="s">
         <v>38</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" s="20">
+        <v>44932</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -1690,12 +1709,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="6">
+    <row r="65" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="11">
         <v>64</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="12" t="s">
         <v>61</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E65" s="15">
+        <v>44932</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">

--- a/VerimadenciligiCalismaKonulari (1).xlsx
+++ b/VerimadenciligiCalismaKonulari (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KullaniciX\Documents\GitHub\veriMadenciligi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A053E5-F530-4885-ABFE-A47C9F348AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797BA12D-8B92-47A6-B623-8EC8B1C0BED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="106">
   <si>
     <t>Konu</t>
   </si>
@@ -362,6 +362,9 @@
   </si>
   <si>
     <t>Melik Samed ALMACI</t>
+  </si>
+  <si>
+    <t>Berat Can KATANALP</t>
   </si>
 </sst>
 </file>
@@ -657,7 +660,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -709,7 +712,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -913,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1210,12 +1213,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+    <row r="23" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="18" t="s">
         <v>22</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="20">
+        <v>44932</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
